--- a/biology/Zoologie/Dollocaris_ingens/Dollocaris_ingens.xlsx
+++ b/biology/Zoologie/Dollocaris_ingens/Dollocaris_ingens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dollocaris ingens est une espèce fossile de crustacés de la famille fossile des Dollocarididae (classe fossile des Thylacocephala).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dollocaris ingens a été découverte en France dans le « konservat-lagerstätte » de La Voulte-sur-Rhône dans le département de l'Ardèche. Ce niveau est daté du Callovien (Jurassique moyen), soit environ 165 Ma (millions d'années)[1],[2].
-Van Straelen indique dans sa publication de 1923 que le céphalothorax des plus grands spécimens atteint 8 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dollocaris ingens a été découverte en France dans le « konservat-lagerstätte » de La Voulte-sur-Rhône dans le département de l'Ardèche. Ce niveau est daté du Callovien (Jurassique moyen), soit environ 165 Ma (millions d'années),.
+Van Straelen indique dans sa publication de 1923 que le céphalothorax des plus grands spécimens atteint 8 cm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dollocaris ingens van Straelen, 1923[4],[3],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dollocaris ingens van Straelen, 1923.
 </t>
         </is>
       </c>
